--- a/outputs/thatcher_out_sheet.xlsx
+++ b/outputs/thatcher_out_sheet.xlsx
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9218207001686096</v>
+        <v>31.68204689025879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9005110263824463</v>
+        <v>49.52397537231445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0116936304601874</v>
+        <v>-0.2197118881696385</v>
       </c>
     </row>
     <row r="3">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8952138423919678</v>
+        <v>42.24897766113281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.873546838760376</v>
+        <v>51.18006896972656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01224982207173205</v>
+        <v>-0.09559223422112748</v>
       </c>
     </row>
     <row r="4">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8080122470855713</v>
+        <v>33.10247802734375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6219020485877991</v>
+        <v>63.34107208251953</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1301547925361008</v>
+        <v>-0.3135367167708946</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8329136371612549</v>
+        <v>41.74979782104492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8201987743377686</v>
+        <v>61.0797233581543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007691468973943905</v>
+        <v>-0.1879803126129845</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8635510206222534</v>
+        <v>40.27087783813477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8609939813613892</v>
+        <v>53.47554779052734</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001482732696405745</v>
+        <v>-0.1408551831586352</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8837648630142212</v>
+        <v>52.22653961181641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8948670625686646</v>
+        <v>54.95434188842773</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006241988235314619</v>
+        <v>-0.02545045570095553</v>
       </c>
     </row>
     <row r="8">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8102831840515137</v>
+        <v>48.68460083007812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8210809230804443</v>
+        <v>51.46051788330078</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00661884062651947</v>
+        <v>-0.02771894515565447</v>
       </c>
     </row>
     <row r="9">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6537295579910278</v>
+        <v>46.17319107055664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8665193319320679</v>
+        <v>58.69224166870117</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1399703531122488</v>
+        <v>-0.1193820525136483</v>
       </c>
     </row>
     <row r="10">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7563161253929138</v>
+        <v>46.99728775024414</v>
       </c>
       <c r="F10" t="n">
-        <v>0.857303261756897</v>
+        <v>41.81713485717773</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06258423589119121</v>
+        <v>0.05832558205060628</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8635844588279724</v>
+        <v>33.90052032470703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7465731501579285</v>
+        <v>54.5718994140625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07267071746084487</v>
+        <v>-0.2336477192597577</v>
       </c>
     </row>
     <row r="12">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9361820816993713</v>
+        <v>39.70060729980469</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9002982974052429</v>
+        <v>44.27553939819336</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01953943243957975</v>
+        <v>-0.05447894763308705</v>
       </c>
     </row>
     <row r="13">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8880978226661682</v>
+        <v>36.75015640258789</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9203409552574158</v>
+        <v>37.93948364257812</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0178292641060642</v>
+        <v>-0.01592359046409956</v>
       </c>
     </row>
     <row r="14">
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8304690718650818</v>
+        <v>35.56975555419922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6970011591911316</v>
+        <v>51.35448455810547</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08737840513046199</v>
+        <v>-0.1815917974492804</v>
       </c>
     </row>
     <row r="15">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7811781764030457</v>
+        <v>46.65703964233398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9003688097000122</v>
+        <v>71.72933197021484</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07088153603913727</v>
+        <v>-0.2117836030141769</v>
       </c>
     </row>
     <row r="16">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8073972463607788</v>
+        <v>49.11107635498047</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8977788686752319</v>
+        <v>61.45503234863281</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05300427417290231</v>
+        <v>-0.1116432163380364</v>
       </c>
     </row>
     <row r="17">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9412283301353455</v>
+        <v>45.04802322387695</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8815270662307739</v>
+        <v>71.67279052734375</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0327533052562034</v>
+        <v>-0.2281064229059862</v>
       </c>
     </row>
     <row r="18">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9025203585624695</v>
+        <v>41.82546615600586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9214981198310852</v>
+        <v>54.46707534790039</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01040436897620126</v>
+        <v>-0.131283368311363</v>
       </c>
     </row>
     <row r="19">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7919065952301025</v>
+        <v>33.21820449829102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7126413583755493</v>
+        <v>56.01052474975586</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05268375571851595</v>
+        <v>-0.2554370150011269</v>
       </c>
     </row>
     <row r="20">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7986235022544861</v>
+        <v>44.60952377319336</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9032379388809204</v>
+        <v>59.28733062744141</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06147059572407975</v>
+        <v>-0.1412728704725672</v>
       </c>
     </row>
     <row r="21">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8713464140892029</v>
+        <v>47.2743034362793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9028027057647705</v>
+        <v>85.11479949951172</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01773035384881105</v>
+        <v>-0.2858278757397815</v>
       </c>
     </row>
     <row r="22">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5647149085998535</v>
+        <v>32.45445251464844</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8795140981674194</v>
+        <v>41.79208374023438</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2179704105737391</v>
+        <v>-0.125765210023139</v>
       </c>
     </row>
     <row r="23">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7431666254997253</v>
+        <v>39.05219268798828</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8622668981552124</v>
+        <v>44.7509651184082</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07418573917924848</v>
+        <v>-0.06800188178571176</v>
       </c>
     </row>
     <row r="24">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7632157802581787</v>
+        <v>37.1380729675293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8553071022033691</v>
+        <v>52.48085403442383</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.05689837502027303</v>
+        <v>-0.1712002316939161</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7744672894477844</v>
+        <v>40.4986457824707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.863379955291748</v>
+        <v>55.19974136352539</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05428629936615575</v>
+        <v>-0.1536190527289337</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/thatcher_out_sheet.xlsx
+++ b/outputs/thatcher_out_sheet.xlsx
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.68204689025879</v>
+        <v>0.3954223096370697</v>
       </c>
       <c r="F2" t="n">
-        <v>49.52397537231445</v>
+        <v>0.5692073106765747</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2197118881696385</v>
+        <v>-0.1801572306923352</v>
       </c>
     </row>
     <row r="3">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42.24897766113281</v>
+        <v>0.4577904343605042</v>
       </c>
       <c r="F3" t="n">
-        <v>51.18006896972656</v>
+        <v>0.3977595567703247</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09559223422112748</v>
+        <v>0.07016641717316043</v>
       </c>
     </row>
     <row r="4">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.10247802734375</v>
+        <v>0.619657576084137</v>
       </c>
       <c r="F4" t="n">
-        <v>63.34107208251953</v>
+        <v>0.7657075524330139</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3135367167708946</v>
+        <v>-0.1054234536025921</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41.74979782104492</v>
+        <v>0.5780767798423767</v>
       </c>
       <c r="F5" t="n">
-        <v>61.0797233581543</v>
+        <v>0.5241236090660095</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1879803126129845</v>
+        <v>0.04895041892500341</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>40.27087783813477</v>
+        <v>0.522396445274353</v>
       </c>
       <c r="F6" t="n">
-        <v>53.47554779052734</v>
+        <v>0.5946980118751526</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1408551831586352</v>
+        <v>-0.06472287651063255</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>52.22653961181641</v>
+        <v>0.4821517169475555</v>
       </c>
       <c r="F7" t="n">
-        <v>54.95434188842773</v>
+        <v>0.4952534139156342</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02545045570095553</v>
+        <v>-0.01340457150711694</v>
       </c>
     </row>
     <row r="8">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>48.68460083007812</v>
+        <v>0.6159817576408386</v>
       </c>
       <c r="F8" t="n">
-        <v>51.46051788330078</v>
+        <v>0.6030886173248291</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02771894515565447</v>
+        <v>0.01057620673980584</v>
       </c>
     </row>
     <row r="9">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>46.17319107055664</v>
+        <v>0.8321904540061951</v>
       </c>
       <c r="F9" t="n">
-        <v>58.69224166870117</v>
+        <v>0.6696295738220215</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1193820525136483</v>
+        <v>0.1082425837796644</v>
       </c>
     </row>
     <row r="10">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>46.99728775024414</v>
+        <v>0.6981173753738403</v>
       </c>
       <c r="F10" t="n">
-        <v>41.81713485717773</v>
+        <v>0.3938304483890533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05832558205060628</v>
+        <v>0.2786643467415894</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.90052032470703</v>
+        <v>0.5223325490951538</v>
       </c>
       <c r="F11" t="n">
-        <v>54.5718994140625</v>
+        <v>0.4922172129154205</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2336477192597577</v>
+        <v>0.02968344906025358</v>
       </c>
     </row>
     <row r="12">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.70060729980469</v>
+        <v>0.3572616279125214</v>
       </c>
       <c r="F12" t="n">
-        <v>44.27553939819336</v>
+        <v>0.5188379883766174</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05447894763308705</v>
+        <v>-0.184426927554744</v>
       </c>
     </row>
     <row r="13">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.75015640258789</v>
+        <v>0.4730798900127411</v>
       </c>
       <c r="F13" t="n">
-        <v>37.93948364257812</v>
+        <v>0.4874244332313538</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01592359046409956</v>
+        <v>-0.01493438693764969</v>
       </c>
     </row>
     <row r="14">
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35.56975555419922</v>
+        <v>0.5822902917861938</v>
       </c>
       <c r="F14" t="n">
-        <v>51.35448455810547</v>
+        <v>0.8997958898544312</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1815917974492804</v>
+        <v>-0.2142288363533409</v>
       </c>
     </row>
     <row r="15">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>46.65703964233398</v>
+        <v>0.6615465879440308</v>
       </c>
       <c r="F15" t="n">
-        <v>71.72933197021484</v>
+        <v>0.5201432108879089</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2117836030141769</v>
+        <v>0.1196620104496919</v>
       </c>
     </row>
     <row r="16">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.11107635498047</v>
+        <v>0.6206494569778442</v>
       </c>
       <c r="F16" t="n">
-        <v>61.45503234863281</v>
+        <v>0.5786580443382263</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1116432163380364</v>
+        <v>0.03501304927513442</v>
       </c>
     </row>
     <row r="17">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>45.04802322387695</v>
+        <v>0.3428463935852051</v>
       </c>
       <c r="F17" t="n">
-        <v>71.67279052734375</v>
+        <v>0.4132775366306305</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2281064229059862</v>
+        <v>-0.09314761804367287</v>
       </c>
     </row>
     <row r="18">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41.82546615600586</v>
+        <v>0.441541850566864</v>
       </c>
       <c r="F18" t="n">
-        <v>54.46707534790039</v>
+        <v>0.4719856977462769</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.131283368311363</v>
+        <v>-0.03332559290152598</v>
       </c>
     </row>
     <row r="19">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.21820449829102</v>
+        <v>0.6451255083084106</v>
       </c>
       <c r="F19" t="n">
-        <v>56.01052474975586</v>
+        <v>0.8686727285385132</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2554370150011269</v>
+        <v>-0.147673061567126</v>
       </c>
     </row>
     <row r="20">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>44.60952377319336</v>
+        <v>0.6346282362937927</v>
       </c>
       <c r="F20" t="n">
-        <v>59.28733062744141</v>
+        <v>0.5192760825157166</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1412728704725672</v>
+        <v>0.09996682731639808</v>
       </c>
     </row>
     <row r="21">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>47.2743034362793</v>
+        <v>0.5072546005249023</v>
       </c>
       <c r="F21" t="n">
-        <v>85.11479949951172</v>
+        <v>0.6128562092781067</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2858278757397815</v>
+        <v>-0.09427782307696524</v>
       </c>
     </row>
     <row r="22">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.45445251464844</v>
+        <v>0.9330435395240784</v>
       </c>
       <c r="F22" t="n">
-        <v>41.79208374023438</v>
+        <v>0.7397399544715881</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.125765210023139</v>
+        <v>0.115558041878306</v>
       </c>
     </row>
     <row r="23">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>39.05219268798828</v>
+        <v>0.7167056202888489</v>
       </c>
       <c r="F23" t="n">
-        <v>44.7509651184082</v>
+        <v>0.643582820892334</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06800188178571176</v>
+        <v>0.05375536333530849</v>
       </c>
     </row>
     <row r="24">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.1380729675293</v>
+        <v>0.688163161277771</v>
       </c>
       <c r="F24" t="n">
-        <v>52.48085403442383</v>
+        <v>0.5800990462303162</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1712002316939161</v>
+        <v>0.08520644580254573</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.4986457824707</v>
+        <v>0.6716143488883972</v>
       </c>
       <c r="F25" t="n">
-        <v>55.19974136352539</v>
+        <v>0.5623571872711182</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1536190527289337</v>
+        <v>0.08854107118006925</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/thatcher_out_sheet.xlsx
+++ b/outputs/thatcher_out_sheet.xlsx
@@ -498,22 +498,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>img1_u.jpeg</t>
+          <t>img1.jpeg.inv</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>img1_ut.jpeg</t>
+          <t>img1_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3954223096370697</v>
+        <v>0.002388687804341316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5692073106765747</v>
+        <v>0.003157803323119879</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1801572306923352</v>
+        <v>-0.1386670421179617</v>
       </c>
     </row>
     <row r="3">
@@ -529,22 +529,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>img10_u.jpeg</t>
+          <t>img10.jpeg.inv</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>img10_ut.jpeg</t>
+          <t>img10_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4577904343605042</v>
+        <v>0.001839218195527792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3977595567703247</v>
+        <v>0.001852577785030007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07016641717316043</v>
+        <v>-0.003618723670693434</v>
       </c>
     </row>
     <row r="4">
@@ -560,22 +560,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>img11_u.jpeg</t>
+          <t>img11.jpeg.inv</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>img11_ut.jpeg</t>
+          <t>img11_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.619657576084137</v>
+        <v>0.001358714303933084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7657075524330139</v>
+        <v>0.001835654955357313</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1054234536025921</v>
+        <v>-0.1493066745609046</v>
       </c>
     </row>
     <row r="5">
@@ -591,22 +591,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>img12_u.jpeg</t>
+          <t>img12.jpeg.inv</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>img12_ut.jpeg</t>
+          <t>img12_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5780767798423767</v>
+        <v>0.00538976164534688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5241236090660095</v>
+        <v>0.006081756204366684</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04895041892500341</v>
+        <v>-0.06032284202365449</v>
       </c>
     </row>
     <row r="6">
@@ -622,22 +622,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>img13_u.jpeg</t>
+          <t>img13.jpeg.inv</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>img13_ut.jpeg</t>
+          <t>img13_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.522396445274353</v>
+        <v>0.002604142297059298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5946980118751526</v>
+        <v>0.001565990736708045</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06472287651063255</v>
+        <v>0.2489492665929114</v>
       </c>
     </row>
     <row r="7">
@@ -653,22 +653,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>img14_u.jpeg</t>
+          <t>img14.jpeg.inv</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>img14_ut.jpeg</t>
+          <t>img14_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4821517169475555</v>
+        <v>0.008804578334093094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4952534139156342</v>
+        <v>0.007143717724829912</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01340457150711694</v>
+        <v>0.1041403171302389</v>
       </c>
     </row>
     <row r="8">
@@ -684,22 +684,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>img15_u.jpg</t>
+          <t>img15.jpg.inv</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>img15_ut.JPG</t>
+          <t>img15_t.JPG.inv</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6159817576408386</v>
+        <v>0.002370408968999982</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6030886173248291</v>
+        <v>0.001984343631193042</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01057620673980584</v>
+        <v>0.08865379351052637</v>
       </c>
     </row>
     <row r="9">
@@ -715,22 +715,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>img16_u.jpg</t>
+          <t>img16.jpg.inv</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>img16_ut.jpg</t>
+          <t>img16_t.jpg.inv</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8321904540061951</v>
+        <v>0.004291499499231577</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6696295738220215</v>
+        <v>0.00260332552716136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1082425837796644</v>
+        <v>0.2448465284627236</v>
       </c>
     </row>
     <row r="10">
@@ -746,22 +746,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>img17_u.jpg</t>
+          <t>img17.jpg.inv</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>img17_ut.JPG</t>
+          <t>img17_t.JPG.inv</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6981173753738403</v>
+        <v>0.002217433415353298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3938304483890533</v>
+        <v>0.001918173744343221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2786643467415894</v>
+        <v>0.07236172572832991</v>
       </c>
     </row>
     <row r="11">
@@ -777,22 +777,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>img18_u.JPG</t>
+          <t>img18.JPG.inv</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>img18_ut.JPG</t>
+          <t>img18_t.JPG.inv</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5223325490951538</v>
+        <v>0.003344988916069269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4922172129154205</v>
+        <v>0.001984324073418975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02968344906025358</v>
+        <v>0.2553171197364699</v>
       </c>
     </row>
     <row r="12">
@@ -808,22 +808,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>img19_u.jpg</t>
+          <t>img19.jpg.inv</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>img19_ut.jpg</t>
+          <t>img19_t.jpg.inv</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3572616279125214</v>
+        <v>0.00188823533244431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5188379883766174</v>
+        <v>0.001686543109826744</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.184426927554744</v>
+        <v>0.05642090156765958</v>
       </c>
     </row>
     <row r="13">
@@ -839,22 +839,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>img2_u.jpeg</t>
+          <t>img2.jpeg.inv</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>img2_ut.jpeg</t>
+          <t>img2_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4730798900127411</v>
+        <v>0.00211867387406528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4874244332313538</v>
+        <v>0.001361744711175561</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01493438693764969</v>
+        <v>0.2174822207017207</v>
       </c>
     </row>
     <row r="14">
@@ -870,22 +870,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>img20_u.JPG</t>
+          <t>img20.JPG.inv</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>img20_ut.JPG</t>
+          <t>img20_t.JPG.inv</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5822902917861938</v>
+        <v>0.003256943775340915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8997958898544312</v>
+        <v>0.003348832949995995</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2142288363533409</v>
+        <v>-0.01391042696048636</v>
       </c>
     </row>
     <row r="15">
@@ -901,22 +901,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>img21_u.jpg</t>
+          <t>img21.jpg.inv</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>img21_ut.JPG</t>
+          <t>img21_t.JPG.inv</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6615465879440308</v>
+        <v>0.003322663949802518</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5201432108879089</v>
+        <v>0.002682552440091968</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1196620104496919</v>
+        <v>0.1065925802087204</v>
       </c>
     </row>
     <row r="16">
@@ -932,22 +932,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>img22_u.jpg</t>
+          <t>img22.jpg.inv</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>img22_ut.jpg</t>
+          <t>img22_t.jpg.inv</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6206494569778442</v>
+        <v>0.001732120290398598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5786580443382263</v>
+        <v>0.002002198249101639</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03501304927513442</v>
+        <v>-0.07232322466502432</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>img23_u.jpeg</t>
+          <t>img23.jpeg.inv</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>img23_ut.jpeg</t>
+          <t>img23_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3428463935852051</v>
+        <v>0.00270329206250608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4132775366306305</v>
+        <v>0.00453514326363802</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09314761804367287</v>
+        <v>-0.253072814578529</v>
       </c>
     </row>
     <row r="18">
@@ -994,22 +994,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>img24_u.jpeg</t>
+          <t>img24.jpeg.inv</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>img24_ut.jpeg</t>
+          <t>img24_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.441541850566864</v>
+        <v>0.005494765006005764</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4719856977462769</v>
+        <v>0.003228593384847045</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03332559290152598</v>
+        <v>0.2597820150935212</v>
       </c>
     </row>
     <row r="19">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>img3_u.jpeg</t>
+          <t>img3.jpeg.inv</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>img3_ut.jpeg</t>
+          <t>img3_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6451255083084106</v>
+        <v>0.002517020097002387</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8686727285385132</v>
+        <v>0.002258933149278164</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.147673061567126</v>
+        <v>0.05403883464002036</v>
       </c>
     </row>
     <row r="20">
@@ -1056,22 +1056,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>img4_u.jpeg</t>
+          <t>img4.jpeg.inv</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>img4_ut.jpeg</t>
+          <t>img4_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6346282362937927</v>
+        <v>0.003292876062914729</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5192760825157166</v>
+        <v>0.003638846799731255</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09996682731639808</v>
+        <v>-0.0499112188516523</v>
       </c>
     </row>
     <row r="21">
@@ -1087,22 +1087,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>img5_u.jpeg</t>
+          <t>img5.jpeg.inv</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>img5_ut.jpeg</t>
+          <t>img5_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5072546005249023</v>
+        <v>0.002910681301727891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6128562092781067</v>
+        <v>0.002098619006574154</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09427782307696524</v>
+        <v>0.1621109227186649</v>
       </c>
     </row>
     <row r="22">
@@ -1118,22 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>img6_u.jpeg</t>
+          <t>img6.jpeg.inv</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>img6_ut.jpeg</t>
+          <t>img6_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9330435395240784</v>
+        <v>0.002737700007855892</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7397399544715881</v>
+        <v>0.003399533918127418</v>
       </c>
       <c r="G22" t="n">
-        <v>0.115558041878306</v>
+        <v>-0.1078391207266042</v>
       </c>
     </row>
     <row r="23">
@@ -1149,22 +1149,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>img7_u.jpeg</t>
+          <t>img7.jpeg.inv</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>img7_ut.jpeg</t>
+          <t>img7_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7167056202888489</v>
+        <v>0.003517888253554702</v>
       </c>
       <c r="F23" t="n">
-        <v>0.643582820892334</v>
+        <v>0.00273567927069962</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05375536333530849</v>
+        <v>0.1250820399430088</v>
       </c>
     </row>
     <row r="24">
@@ -1180,22 +1180,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>img8_u.jpeg</t>
+          <t>img8.jpeg.inv</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>img8_ut.jpeg</t>
+          <t>img8_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.688163161277771</v>
+        <v>0.001419414416886866</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5800990462303162</v>
+        <v>0.001546438317745924</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08520644580254573</v>
+        <v>-0.04282879570377086</v>
       </c>
     </row>
     <row r="25">
@@ -1211,22 +1211,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>img9_u.jpeg</t>
+          <t>img9.jpeg.inv</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>img9_ut.jpeg</t>
+          <t>img9_t.jpeg.inv</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6716143488883972</v>
+        <v>0.001117727719247341</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5623571872711182</v>
+        <v>0.001360472058877349</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08854107118006925</v>
+        <v>-0.09795188498229061</v>
       </c>
     </row>
   </sheetData>
